--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ccl4</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.1713172466172</v>
+        <v>0.08097766666666667</v>
       </c>
       <c r="H2">
-        <v>56.1713172466172</v>
+        <v>0.242933</v>
       </c>
       <c r="I2">
-        <v>0.4245493462734941</v>
+        <v>0.0005396628443312377</v>
       </c>
       <c r="J2">
-        <v>0.4245493462734941</v>
+        <v>0.0005403049696870037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6963822168236</v>
+        <v>0.076804</v>
       </c>
       <c r="N2">
-        <v>10.6963822168236</v>
+        <v>0.230412</v>
       </c>
       <c r="O2">
-        <v>0.1970494085155833</v>
+        <v>0.0008559845391981288</v>
       </c>
       <c r="P2">
-        <v>0.1970494085155833</v>
+        <v>0.000855984539198129</v>
       </c>
       <c r="Q2">
-        <v>600.8298788922731</v>
+        <v>0.006219408710666667</v>
       </c>
       <c r="R2">
-        <v>600.8298788922731</v>
+        <v>0.055974678396</v>
       </c>
       <c r="S2">
-        <v>0.08365719756886957</v>
+        <v>4.619430511272261E-07</v>
       </c>
       <c r="T2">
-        <v>0.08365719756886957</v>
+        <v>4.624927005039889E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>56.1713172466172</v>
+        <v>0.08097766666666667</v>
       </c>
       <c r="H3">
-        <v>56.1713172466172</v>
+        <v>0.242933</v>
       </c>
       <c r="I3">
-        <v>0.4245493462734941</v>
+        <v>0.0005396628443312377</v>
       </c>
       <c r="J3">
-        <v>0.4245493462734941</v>
+        <v>0.0005403049696870037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.5863598497566</v>
+        <v>12.39743733333333</v>
       </c>
       <c r="N3">
-        <v>43.5863598497566</v>
+        <v>37.192312</v>
       </c>
       <c r="O3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="P3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="Q3">
-        <v>2448.303246745896</v>
+        <v>1.003915547899556</v>
       </c>
       <c r="R3">
-        <v>2448.303246745896</v>
+        <v>9.035239931096001</v>
       </c>
       <c r="S3">
-        <v>0.3408921487046245</v>
+        <v>7.456525738136793E-05</v>
       </c>
       <c r="T3">
-        <v>0.3408921487046245</v>
+        <v>7.465397989196272E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.13678248234039</v>
+        <v>0.08097766666666667</v>
       </c>
       <c r="H4">
-        <v>76.13678248234039</v>
+        <v>0.242933</v>
       </c>
       <c r="I4">
-        <v>0.5754506537265059</v>
+        <v>0.0005396628443312377</v>
       </c>
       <c r="J4">
-        <v>0.5754506537265059</v>
+        <v>0.0005403049696870037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6963822168236</v>
+        <v>77.25167833333333</v>
       </c>
       <c r="N4">
-        <v>10.6963822168236</v>
+        <v>231.755035</v>
       </c>
       <c r="O4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006667</v>
       </c>
       <c r="P4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006668</v>
       </c>
       <c r="Q4">
-        <v>814.3881261902724</v>
+        <v>6.255660657517223</v>
       </c>
       <c r="R4">
-        <v>814.3881261902724</v>
+        <v>56.300945917655</v>
       </c>
       <c r="S4">
-        <v>0.1133922109467137</v>
+        <v>0.0004646356438987426</v>
       </c>
       <c r="T4">
-        <v>0.1133922109467137</v>
+        <v>0.000465188497094537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>71.97958300000001</v>
+      </c>
+      <c r="H5">
+        <v>215.938749</v>
+      </c>
+      <c r="I5">
+        <v>0.4796965397318159</v>
+      </c>
+      <c r="J5">
+        <v>0.4802673133443974</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.076804</v>
+      </c>
+      <c r="N5">
+        <v>0.230412</v>
+      </c>
+      <c r="O5">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P5">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q5">
+        <v>5.528319892732</v>
+      </c>
+      <c r="R5">
+        <v>49.754879034588</v>
+      </c>
+      <c r="S5">
+        <v>0.0004106128215172754</v>
+      </c>
+      <c r="T5">
+        <v>0.0004111013949050274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>71.97958300000001</v>
+      </c>
+      <c r="H6">
+        <v>215.938749</v>
+      </c>
+      <c r="I6">
+        <v>0.4796965397318159</v>
+      </c>
+      <c r="J6">
+        <v>0.4802673133443974</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N6">
+        <v>37.192312</v>
+      </c>
+      <c r="O6">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P6">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q6">
+        <v>892.3623695219654</v>
+      </c>
+      <c r="R6">
+        <v>8031.261325697688</v>
+      </c>
+      <c r="S6">
+        <v>0.06627970838789135</v>
+      </c>
+      <c r="T6">
+        <v>0.06635857222255347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>71.97958300000001</v>
+      </c>
+      <c r="H7">
+        <v>215.938749</v>
+      </c>
+      <c r="I7">
+        <v>0.4796965397318159</v>
+      </c>
+      <c r="J7">
+        <v>0.4802673133443974</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N7">
+        <v>231.755035</v>
+      </c>
+      <c r="O7">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P7">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q7">
+        <v>5560.543592483468</v>
+      </c>
+      <c r="R7">
+        <v>50044.89233235121</v>
+      </c>
+      <c r="S7">
+        <v>0.4130062185224073</v>
+      </c>
+      <c r="T7">
+        <v>0.4134976397269389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>77.45677933333333</v>
+      </c>
+      <c r="H8">
+        <v>232.370338</v>
+      </c>
+      <c r="I8">
+        <v>0.5161984478983551</v>
+      </c>
+      <c r="J8">
+        <v>0.5168126538150387</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.076804</v>
+      </c>
+      <c r="N8">
+        <v>0.230412</v>
+      </c>
+      <c r="O8">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P8">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q8">
+        <v>5.948990479917333</v>
+      </c>
+      <c r="R8">
+        <v>53.540914319256</v>
+      </c>
+      <c r="S8">
+        <v>0.0004418578905590628</v>
+      </c>
+      <c r="T8">
+        <v>0.0004423836413276281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>77.45677933333333</v>
+      </c>
+      <c r="H9">
+        <v>232.370338</v>
+      </c>
+      <c r="I9">
+        <v>0.5161984478983551</v>
+      </c>
+      <c r="J9">
+        <v>0.5168126538150387</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N9">
+        <v>37.192312</v>
+      </c>
+      <c r="O9">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P9">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q9">
+        <v>960.2655678268285</v>
+      </c>
+      <c r="R9">
+        <v>8642.390110441456</v>
+      </c>
+      <c r="S9">
+        <v>0.07132317989225614</v>
+      </c>
+      <c r="T9">
+        <v>0.07140804477177073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>77.45677933333333</v>
+      </c>
+      <c r="H10">
+        <v>232.370338</v>
+      </c>
+      <c r="I10">
+        <v>0.5161984478983551</v>
+      </c>
+      <c r="J10">
+        <v>0.5168126538150387</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N10">
+        <v>231.755035</v>
+      </c>
+      <c r="O10">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P10">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q10">
+        <v>5983.666201794647</v>
+      </c>
+      <c r="R10">
+        <v>53852.99581615183</v>
+      </c>
+      <c r="S10">
+        <v>0.4444334101155399</v>
+      </c>
+      <c r="T10">
+        <v>0.4449622254019404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.534989</v>
+      </c>
+      <c r="H11">
+        <v>1.069978</v>
+      </c>
+      <c r="I11">
+        <v>0.003565349525497869</v>
+      </c>
+      <c r="J11">
+        <v>0.002379727870876994</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.076804</v>
+      </c>
+      <c r="N11">
+        <v>0.230412</v>
+      </c>
+      <c r="O11">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P11">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q11">
+        <v>0.041089295156</v>
+      </c>
+      <c r="R11">
+        <v>0.246535770936</v>
+      </c>
+      <c r="S11">
+        <v>3.051884070663561E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.037010264969589E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>76.13678248234039</v>
-      </c>
-      <c r="H5">
-        <v>76.13678248234039</v>
-      </c>
-      <c r="I5">
-        <v>0.5754506537265059</v>
-      </c>
-      <c r="J5">
-        <v>0.5754506537265059</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>43.5863598497566</v>
-      </c>
-      <c r="N5">
-        <v>43.5863598497566</v>
-      </c>
-      <c r="O5">
-        <v>0.8029505914844167</v>
-      </c>
-      <c r="P5">
-        <v>0.8029505914844167</v>
-      </c>
-      <c r="Q5">
-        <v>3318.525199077933</v>
-      </c>
-      <c r="R5">
-        <v>3318.525199077933</v>
-      </c>
-      <c r="S5">
-        <v>0.4620584427797922</v>
-      </c>
-      <c r="T5">
-        <v>0.4620584427797922</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.534989</v>
+      </c>
+      <c r="H12">
+        <v>1.069978</v>
+      </c>
+      <c r="I12">
+        <v>0.003565349525497869</v>
+      </c>
+      <c r="J12">
+        <v>0.002379727870876994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N12">
+        <v>37.192312</v>
+      </c>
+      <c r="O12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q12">
+        <v>6.632492601522668</v>
+      </c>
+      <c r="R12">
+        <v>39.794955609136</v>
+      </c>
+      <c r="S12">
+        <v>0.0004926246226062411</v>
+      </c>
+      <c r="T12">
+        <v>0.0003288071859189261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.534989</v>
+      </c>
+      <c r="H13">
+        <v>1.069978</v>
+      </c>
+      <c r="I13">
+        <v>0.003565349525497869</v>
+      </c>
+      <c r="J13">
+        <v>0.002379727870876994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N13">
+        <v>231.755035</v>
+      </c>
+      <c r="O13">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P13">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q13">
+        <v>41.32879813987167</v>
+      </c>
+      <c r="R13">
+        <v>247.97278883923</v>
+      </c>
+      <c r="S13">
+        <v>0.003069673018820964</v>
+      </c>
+      <c r="T13">
+        <v>0.002048883674693099</v>
       </c>
     </row>
   </sheetData>
